--- a/biology/Botanique/Crepidomanes_humile/Crepidomanes_humile.xlsx
+++ b/biology/Botanique/Crepidomanes_humile/Crepidomanes_humile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crepidomanes humile est une fougère épiphyte de la famille des Hyménophyllacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a les caractéristiques suivantes[1] ;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a les caractéristiques suivantes ;
 le rhizome est filiforme avec de courtes radicelles ;
 les frondes ont entre deux et cinq centimètres de long sur un à deux de large ;
 le limbe des frondes, lancéolé ou oblongue, est divisé deux fois ;
@@ -549,7 +563,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se trouve à Java, Taïwan, Nouvelle-Guinée, en Nouvelle-Zélande et en Polynésie (en particulier en Nouvelle-Calédonie).
 Elle est épiphyte, sur des arbres des forêts tropicales humides.
@@ -581,15 +597,17 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce est décrite une première fois par Georg Forster en 1786 à partir d'un exemplaire collecté aux Îles de la Société[2]. Il la nomme Trichomanes humile en raison de petite taille[3].
-En 1843, Karel Bořivoj Presl place cette espèce dans le genre Didymoglossum : Didymoglossum humile (G.Forst.) C.Presl[4].
-En 1861, Roelof Benjamin van den Bosch la reclasse dans le genre Crepidomanes : Crepidomanes humilis (G.Forst) Bosch[5]. La terminaison de l'épithète spécifique est corrigée par Clyde Franklin Reed en 1949.
-En 1938, Edwin Bingham Copeland la transfère dans le genre Crepidopteris : Crepidopteris humile (G.Forst.) Copel.[6].
-En 1970, Rodolfo Emilio Giuseppe Pichi-Sermolli la place dans le genre Reediella : Reediella humilis (G.Forst.) Pic.Serm.[7].
-En 1974, Conrad Vernon Morton la classe dans le genre Trichomanes, sous-genre Trichomanes, section Crepidium[8].
-En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito confirment le reclassement de Roelof Benjamin van den Bosch et prennent Crepdidomanes humile comme espèce représentative du genre Crepdiomanes, sous-genre Crepidomanes, section Crepdium[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette espèce est décrite une première fois par Georg Forster en 1786 à partir d'un exemplaire collecté aux Îles de la Société. Il la nomme Trichomanes humile en raison de petite taille.
+En 1843, Karel Bořivoj Presl place cette espèce dans le genre Didymoglossum : Didymoglossum humile (G.Forst.) C.Presl.
+En 1861, Roelof Benjamin van den Bosch la reclasse dans le genre Crepidomanes : Crepidomanes humilis (G.Forst) Bosch. La terminaison de l'épithète spécifique est corrigée par Clyde Franklin Reed en 1949.
+En 1938, Edwin Bingham Copeland la transfère dans le genre Crepidopteris : Crepidopteris humile (G.Forst.) Copel..
+En 1970, Rodolfo Emilio Giuseppe Pichi-Sermolli la place dans le genre Reediella : Reediella humilis (G.Forst.) Pic.Serm..
+En 1974, Conrad Vernon Morton la classe dans le genre Trichomanes, sous-genre Trichomanes, section Crepidium.
+En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito confirment le reclassement de Roelof Benjamin van den Bosch et prennent Crepdidomanes humile comme espèce représentative du genre Crepdiomanes, sous-genre Crepidomanes, section Crepdium.
 Crepidomanes humile appartient au sous-genre Crepidomanes, section Crepidium.
 Elle compte de nombreux synonymes :
 Crepidopteris humilis (G.Forst.) Copel.
